--- a/tests/test_inputs/pears/Coalition_Export.xlsx
+++ b/tests/test_inputs/pears/Coalition_Export.xlsx
@@ -1542,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,11 +1853,6 @@
           <t>modified</t>
         </is>
       </c>
-      <c r="AY1" s="6" t="inlineStr">
-        <is>
-          <t>event_title</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1878,22 +1873,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dr.James.Khan.MD@fake_domain.com</t>
+          <t>Brandi.Gamble@fake_domain.com</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -2035,11 +2030,6 @@
       </c>
       <c r="AX2" s="7" t="n">
         <v>44850.92563256944</v>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Coalition Data 9926 Event Title</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2281,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. James Khan MD</t>
+          <t>Brandi Gamble</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
